--- a/exe/data/system.xlsx
+++ b/exe/data/system.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25490" yWindow="-9560" windowWidth="14620" windowHeight="25100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,19 +11,26 @@
     <sheet name="user" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -52,7 +58,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,9 +427,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -433,13 +440,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -500,6 +507,38 @@
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test_db</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>admin,root</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>admin,root</t>
         </is>
@@ -516,13 +555,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -545,6 +584,18 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>21232f297a57a5a743894a0e4a801fc3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>47bce5c74f589f4867dbd57e9ca9f808</t>
         </is>
       </c>
     </row>
